--- a/biology/Médecine/Microstomie/Microstomie.xlsx
+++ b/biology/Médecine/Microstomie/Microstomie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La microstomie est la petitesse anormale et congénitale de la bouche[1]. Cette anomalie est un symptôme de certains syndromes craniofaciaux tel que le syndrome de Freeman-Sheldon et Dysplasie de Sensenbrenner. Elle peut également être observée dans les maladies génétiques, telles que le syndrome de Bartter[2]. Dans ce dernier syndrome, la microstomie nuit à la bonne alimentation et nécessite une chirurgie appelée commissurotomie[3] (ou commissuroplastie[4]). La microstomie peut également être présente dans la sclérodermie systémique[5].   
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La microstomie est la petitesse anormale et congénitale de la bouche. Cette anomalie est un symptôme de certains syndromes craniofaciaux tel que le syndrome de Freeman-Sheldon et Dysplasie de Sensenbrenner. Elle peut également être observée dans les maladies génétiques, telles que le syndrome de Bartter. Dans ce dernier syndrome, la microstomie nuit à la bonne alimentation et nécessite une chirurgie appelée commissurotomie (ou commissuroplastie). La microstomie peut également être présente dans la sclérodermie systémique.   
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Propagation et causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La fréquence n'est pas connue. Dans 10% des brûlures et accidents électriques dans la région de la bouche pendant l'âge de croissance et dans plus de 30% des cas de sclérodermie, on peut retrouver de la microstomie acquise . Un trouble de croissance postopératoire après ablation d'une tumeur au niveau de la bouche, un syndrome CREST ou des formes d' épidermolyse bulleuse sont parmi les causes d'une microstomie acquise. -  
 </t>
